--- a/Helpful Resources/Assets/Old/Tables.xlsx
+++ b/Helpful Resources/Assets/Old/Tables.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Helpful Resources\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Helpful Resources\Assets\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838FB46-E1F0-4B0A-83CE-AB9B48AF661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8BDC6F-E6F0-47D4-BB09-F41D7933C4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <r>
       <t xml:space="preserve">Vessel Dimaeter, </t>
@@ -109,6 +118,123 @@
   <si>
     <t>Table 1</t>
   </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>mCNV Area</t>
+  </si>
+  <si>
+    <t>Vessel Area</t>
+  </si>
+  <si>
+    <t>Vessel Length</t>
+  </si>
+  <si>
+    <t>Junction Density</t>
+  </si>
+  <si>
+    <t>Vessel Dimaeter</t>
+  </si>
+  <si>
+    <t>AA (1).tif</t>
+  </si>
+  <si>
+    <t>AA (2).tif</t>
+  </si>
+  <si>
+    <t>AA (3).tif</t>
+  </si>
+  <si>
+    <t>BB (1).tif</t>
+  </si>
+  <si>
+    <t>BB (2).tif</t>
+  </si>
+  <si>
+    <t>CC (1).tif</t>
+  </si>
+  <si>
+    <t>CC (2).tif</t>
+  </si>
+  <si>
+    <t>CC (3).tif</t>
+  </si>
+  <si>
+    <t>DD (1).tif</t>
+  </si>
+  <si>
+    <t>DD (2).tif</t>
+  </si>
+  <si>
+    <t>EE (1).tif</t>
+  </si>
+  <si>
+    <t>EE (2).tif</t>
+  </si>
+  <si>
+    <t>EE (3).tif</t>
+  </si>
+  <si>
+    <t>FF (1).tif</t>
+  </si>
+  <si>
+    <t>FF (2).tif</t>
+  </si>
+  <si>
+    <t>GG (1).tif</t>
+  </si>
+  <si>
+    <t>GG (2).tif</t>
+  </si>
+  <si>
+    <t>GG (3).tif</t>
+  </si>
+  <si>
+    <t>HH (1).tif</t>
+  </si>
+  <si>
+    <t>HH (2).tif</t>
+  </si>
+  <si>
+    <t>HH (3).tif</t>
+  </si>
+  <si>
+    <t>II (1).tif</t>
+  </si>
+  <si>
+    <t>II (2).tif</t>
+  </si>
+  <si>
+    <t>II (3).tif</t>
+  </si>
+  <si>
+    <t>II (4).tif</t>
+  </si>
+  <si>
+    <t>II (5).tif</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Mean (Our Results)</t>
+  </si>
+  <si>
+    <t>Std. Dev. (Our Results)</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Mean (Similar Study)</t>
+  </si>
+  <si>
+    <t>Std. Dev. (Similar Study)</t>
+  </si>
 </sst>
 </file>
 
@@ -117,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +290,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,11 +323,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -209,6 +413,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,6 +506,72 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4C995B-EA36-4009-BC48-8E07FCBB1830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8524875" y="533400"/>
+          <a:ext cx="8686800" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -552,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,4 +967,1122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDDE165-B505-4221-BFE4-B812E27C7753}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.153</v>
+      </c>
+      <c r="D2" s="13">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13">
+        <v>5.1210000000000004</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1.371</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1.141</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="I2" s="13">
+        <v>4.6870000000000003</v>
+      </c>
+      <c r="J2" s="14">
+        <v>29.946999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.193</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43</v>
+      </c>
+      <c r="E3" s="13">
+        <v>6.8529999999999998</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1.32</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="I3" s="13">
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="J3" s="14">
+        <v>28.151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13">
+        <v>4.9550000000000001</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1.28</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I4" s="13">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="J4" s="14">
+        <v>29.818999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D5" s="13">
+        <v>58</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1.359</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I5" s="13">
+        <v>5.6749999999999998</v>
+      </c>
+      <c r="J5" s="14">
+        <v>29.106000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D6" s="13">
+        <v>86</v>
+      </c>
+      <c r="E6" s="13">
+        <v>13.69</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.377</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I6" s="13">
+        <v>6.282</v>
+      </c>
+      <c r="J6" s="14">
+        <v>28.824000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.21</v>
+      </c>
+      <c r="D7" s="13">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6.5389999999999997</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.304</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1.141</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.505</v>
+      </c>
+      <c r="I7" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>32.180999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.249</v>
+      </c>
+      <c r="D8" s="13">
+        <v>54</v>
+      </c>
+      <c r="E8" s="13">
+        <v>8.298</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1.111</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="I8" s="13">
+        <v>6.5069999999999997</v>
+      </c>
+      <c r="J8" s="14">
+        <v>30.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D9" s="13">
+        <v>68</v>
+      </c>
+      <c r="E9" s="13">
+        <v>10.33</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1.391</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1.107</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.501</v>
+      </c>
+      <c r="I9" s="13">
+        <v>6.5830000000000002</v>
+      </c>
+      <c r="J9" s="14">
+        <v>28.687000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D10" s="13">
+        <v>49</v>
+      </c>
+      <c r="E10" s="13">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1.117</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="I10" s="13">
+        <v>5.5179999999999998</v>
+      </c>
+      <c r="J10" s="14">
+        <v>31.821999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.433</v>
+      </c>
+      <c r="D11" s="13">
+        <v>81</v>
+      </c>
+      <c r="E11" s="13">
+        <v>14.063000000000001</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1.351</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5.76</v>
+      </c>
+      <c r="J11" s="14">
+        <v>30.824999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.156</v>
+      </c>
+      <c r="C12" s="13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>14</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1.194</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5.2510000000000003</v>
+      </c>
+      <c r="J12" s="14">
+        <v>29.332000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4.516</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1.325</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.496</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5.093</v>
+      </c>
+      <c r="J13" s="14">
+        <v>30.157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D14" s="13">
+        <v>17</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.503</v>
+      </c>
+      <c r="I14" s="13">
+        <v>4.7919999999999998</v>
+      </c>
+      <c r="J14" s="14">
+        <v>28.716000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D15" s="13">
+        <v>43</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8.4019999999999992</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1.157</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="I15" s="13">
+        <v>5.1180000000000003</v>
+      </c>
+      <c r="J15" s="14">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D16" s="13">
+        <v>68</v>
+      </c>
+      <c r="E16" s="13">
+        <v>11.82</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1.341</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I16" s="13">
+        <v>5.7530000000000001</v>
+      </c>
+      <c r="J16" s="14">
+        <v>30.506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C17" s="13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>10</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.327</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.501</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3.823</v>
+      </c>
+      <c r="J17" s="14">
+        <v>33.563000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D18" s="13">
+        <v>35</v>
+      </c>
+      <c r="E18" s="13">
+        <v>5.9880000000000004</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1.145</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="I18" s="13">
+        <v>5.8449999999999998</v>
+      </c>
+      <c r="J18" s="14">
+        <v>28.905999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.106</v>
+      </c>
+      <c r="D19" s="13">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3.444</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.407</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="I19" s="13">
+        <v>5.8079999999999998</v>
+      </c>
+      <c r="J19" s="14">
+        <v>30.635999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D20" s="13">
+        <v>78</v>
+      </c>
+      <c r="E20" s="13">
+        <v>13.231</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1.379</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="I20" s="13">
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="J20" s="14">
+        <v>31.236999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="13">
+        <v>174</v>
+      </c>
+      <c r="E21" s="13">
+        <v>28.443000000000001</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1.399</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1.107</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.441</v>
+      </c>
+      <c r="I21" s="13">
+        <v>6.117</v>
+      </c>
+      <c r="J21" s="14">
+        <v>29.882999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D22" s="13">
+        <v>183</v>
+      </c>
+      <c r="E22" s="13">
+        <v>29.315000000000001</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1.389</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="I22" s="13">
+        <v>6.242</v>
+      </c>
+      <c r="J22" s="14">
+        <v>29.257999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D23" s="13">
+        <v>73</v>
+      </c>
+      <c r="E23" s="13">
+        <v>12.090999999999999</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I23" s="13">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="J23" s="14">
+        <v>28.251999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D24" s="13">
+        <v>103</v>
+      </c>
+      <c r="E24" s="13">
+        <v>17.678000000000001</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1.113</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I24" s="13">
+        <v>5.8259999999999996</v>
+      </c>
+      <c r="J24" s="14">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.874</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.41</v>
+      </c>
+      <c r="D25" s="13">
+        <v>69</v>
+      </c>
+      <c r="E25" s="13">
+        <v>13.096</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I25" s="13">
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="J25" s="14">
+        <v>31.271999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D26" s="13">
+        <v>55</v>
+      </c>
+      <c r="E26" s="13">
+        <v>9.4849999999999994</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1.403</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I26" s="13">
+        <v>5.798</v>
+      </c>
+      <c r="J26" s="14">
+        <v>28.184000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.309</v>
+      </c>
+      <c r="D27" s="16">
+        <v>69</v>
+      </c>
+      <c r="E27" s="16">
+        <v>10.888</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1.343</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I27" s="16">
+        <v>6.3369999999999997</v>
+      </c>
+      <c r="J27" s="17">
+        <v>28.359000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8238EF8D-E6BD-4B2F-B79F-4F2BAA1AA9D2}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="18">
+        <f>AVERAGE(Sheet2!B2:B27)</f>
+        <v>0.64853846153846162</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="18">
+        <f>STDEV(Sheet2!B2:B27)</f>
+        <v>0.46279699487090264</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18">
+        <f>AVERAGE(Sheet2!C2:C27)</f>
+        <v>0.30626923076923074</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="18">
+        <f>STDEV(Sheet2!C2:C27)</f>
+        <v>0.20128061162313832</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18">
+        <f>AVERAGE(Sheet2!D2:D27)</f>
+        <v>59.884615384615387</v>
+      </c>
+      <c r="C4" s="19">
+        <v>49.36</v>
+      </c>
+      <c r="D4" s="18">
+        <f>STDEV(Sheet2!D2:D27)</f>
+        <v>42.813387553966734</v>
+      </c>
+      <c r="E4" s="19">
+        <v>47.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18">
+        <f>AVERAGE(Sheet2!E2:E27)</f>
+        <v>10.237500000000001</v>
+      </c>
+      <c r="C5" s="19">
+        <v>6.96</v>
+      </c>
+      <c r="D5" s="18">
+        <f>STDEV(Sheet2!E2:E27)</f>
+        <v>6.7725633330372048</v>
+      </c>
+      <c r="E5" s="19">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <f>AVERAGE(Sheet2!F2:F27)</f>
+        <v>1.341923076923077</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1.08</v>
+      </c>
+      <c r="D6" s="18">
+        <f>STDEV(Sheet2!F2:F27)</f>
+        <v>4.9469928705768801E-2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18">
+        <f>AVERAGE(Sheet2!G2:G27)</f>
+        <v>1.1242692307692308</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1.26</v>
+      </c>
+      <c r="D7" s="18">
+        <f>STDEV(Sheet2!G2:G27)</f>
+        <v>2.1142483661684915E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <f>AVERAGE(Sheet2!H2:H27)</f>
+        <v>0.4850000000000001</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D8" s="18">
+        <f>STDEV(Sheet2!H2:H27)</f>
+        <v>2.093609323632277E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18">
+        <f>AVERAGE(Sheet2!I2:I27)</f>
+        <v>5.643807692307691</v>
+      </c>
+      <c r="C9" s="19">
+        <v>7.52</v>
+      </c>
+      <c r="D9" s="18">
+        <f>STDEV(Sheet2!I2:I27)</f>
+        <v>0.63453018961943197</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18">
+        <f>AVERAGE(Sheet2!J2:J27)</f>
+        <v>30.016269230769225</v>
+      </c>
+      <c r="C10" s="19">
+        <v>31.11</v>
+      </c>
+      <c r="D10" s="18">
+        <f>STDEV(Sheet2!J2:J27)</f>
+        <v>1.4148901457764782</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>